--- a/biology/Botanique/Fothergilla/Fothergilla.xlsx
+++ b/biology/Botanique/Fothergilla/Fothergilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fothergilla est un genre composé de deux ou trois espèces de plantes à fleurs de la famille des Hamamelidaceae, originaire du sud-est des États-Unis.
 Ce sont des arbustes à feuilles caduques atteignant 1 à 3 m de hauteur . Les feuilles sont alternées, larges ovales, mesurant 4 à 10 cm de long et 3 à 8 cm en largeur, grossièrement dentées ; ils sont caractérisés pour la couleur de leur feuillage d'automne qui va de l'orange brillant au rouge. Les fleurs apparaissent au printemps sur des épis terminaux ; elles n'ont pas de pétales, mais ont une grappe de blanches étamines de 2 à 3 cm de long.
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fothergilla gardenii L.
 Fothergilla major (Sims) Lodd.
@@ -545,7 +559,9 @@
           <t>Culture et utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fothergilla sont cultivés comme plantes ornementales pour leurs fleurs printanières et leur feuillage automnal coloré. Ce sont des arbustes qui poussent lentement, excédant rarement 1 à 2 m de hauteur en culture.
 </t>
